--- a/data_example/20170209_Finse_snowpit.xlsx
+++ b/data_example/20170209_Finse_snowpit.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
-    <t xml:space="preserve">Layer #, from top to bottom</t>
+    <t xml:space="preserve">Layer ID</t>
   </si>
   <si>
     <t xml:space="preserve">Top [cm]</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Depth Center [cm]</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow Density [g/cm³]</t>
+    <t xml:space="preserve">Snow Density [g/cm3]</t>
   </si>
   <si>
     <t xml:space="preserve">Depth [cm]</t>
@@ -523,32 +523,32 @@
   </sheetPr>
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U52" activeCellId="0" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
